--- a/biology/Médecine/Pierre_Saint_Jean/Pierre_Saint_Jean.xlsx
+++ b/biology/Médecine/Pierre_Saint_Jean/Pierre_Saint_Jean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Saint Jean ou Pierre St. Jean, né le 3 septembre 1833 à Bytown en Ontario et mort le 6 mai 1900 à Ottawa, est un médecin et homme politique franco-ontarien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Saint Jean étudie la médecine à l'université McGill de Montréal. Il obtint son diplôme de docteur en 1855. Il pratiqua la médecine à Saint-Denis-sur-Richelieu au Québec où il se maria, mais sa femme mourut en couches en 1857. Il partit alors s'installer à Ottawa. Il fut l'un des trois médecins francophones du futur hôpital d'Ottawa fondé par Élisabeth Bruyère et les Sœurs grises.
 Il fonde avec le maire francophone de Bytown (devenu peu après Ottawa) Joseph-Balsora Turgeon une société littéraire de langue française l'Institut canadien-français d'Ottawa.
